--- a/Profile_Coverage.xlsx
+++ b/Profile_Coverage.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -169,6 +169,84 @@
   </si>
   <si>
     <t>Coverage.contract</t>
+  </si>
+  <si>
+    <t>IN1-2</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>IN1-12 / IN1-13</t>
+  </si>
+  <si>
+    <t>IN1-3</t>
+  </si>
+  <si>
+    <t>IN1-8</t>
+  </si>
+  <si>
+    <t>IN1-35</t>
+  </si>
+  <si>
+    <t>IN1-10</t>
+  </si>
+  <si>
+    <t>IN1-16, 18, 19</t>
+  </si>
+  <si>
+    <t>Reference(Patient | RelatedPerson | Organization) :name of insured, address, date of birth</t>
+  </si>
+  <si>
+    <t>Reference(Contract)</t>
+  </si>
+  <si>
+    <t>IN1.2</t>
+  </si>
+  <si>
+    <t>IN1.15</t>
+  </si>
+  <si>
+    <t>IN1.3</t>
+  </si>
+  <si>
+    <t>IN1.8</t>
+  </si>
+  <si>
+    <t>IN1.35</t>
+  </si>
+  <si>
+    <t>IN1.10</t>
+  </si>
+  <si>
+    <t>IN1.InsurancePlanID</t>
+  </si>
+  <si>
+    <t>IN1.PlanType</t>
+  </si>
+  <si>
+    <t>IN1.NameOfInsured+IN1.InsuredsDateOfBirth+IN1.InsuredsAddress</t>
+  </si>
+  <si>
+    <t>IN1.InsuranceCompanyID</t>
+  </si>
+  <si>
+    <t>IN1.GroupNumber</t>
+  </si>
+  <si>
+    <t>IN1.CompanyPlanCode</t>
+  </si>
+  <si>
+    <t>IN1.InsuredsGroupEmpID</t>
+  </si>
+  <si>
+    <t>IN1.PlanEffectiveDate || IN1.PlanExpirationDate</t>
+  </si>
+  <si>
+    <t>IN1.12 || IN1.13</t>
+  </si>
+  <si>
+    <t>IN1.16 + IN1.18 +IN1.19</t>
   </si>
 </sst>
 </file>
@@ -243,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -286,21 +364,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -313,6 +395,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +689,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,429 +697,565 @@
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
